--- a/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_TSLA_nodeduct.pkl.xlsx
+++ b/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_TSLA_nodeduct.pkl.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\2020-2021\00_PWS\PWS\voor_onderzoek_update\1 januari 2020 - nu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1063,8 +1068,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,17 +1111,5093 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$346</c:f>
+              <c:strCache>
+                <c:ptCount val="345"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$346</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="345"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.18000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.489999999999991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.29000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.139999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.69</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.580000000000013</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.580000000000013</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.62</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.87</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.79000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.79000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.79000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31.330000000000009</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44.94</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43.94</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35.949999999999989</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>38.94</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>38.94</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>38.94</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38.94</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>49.09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>49.09</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>49.09</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>55.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>55.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>55.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>55.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>60.349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>60.349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>60.349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>59.360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>59.12</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>56.849999999999987</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>58.41</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.889999999999993</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57.889999999999993</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57.889999999999993</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>59.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>59.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>60.639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>62.110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>62.110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>62.110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62.110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>62.110000000000007</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>62.349999999999987</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>62.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>60.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>64.389999999999986</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>64.389999999999986</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>64.389999999999986</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>71.94</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>71.94</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>71.94</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>69.84</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>72.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>72.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>72.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>79.56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>86.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>86.07</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>86.82</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>82.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>85.35</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>82.69</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>87.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>101.34</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>101.34</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>101.34</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>103.42</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>114.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>111.12</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>112.44</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>114.37</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>114.37</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>123.85</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>123.85</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>123.85</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>118.87</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>112.52</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>115.54</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>115.54</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>115.54</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>115.54</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>113.07</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>113.07</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>113.07</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>110.72</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>107.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>120.72</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>120.72</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>120.72</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>120.72</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>120.72</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>131.93</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>130.18</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>130.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>137.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>149.62</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>149.62</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>149.62</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>140.6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>143.38</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>143.38</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>143.38</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>143.38</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>122.32</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>133.24</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>134.62</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>139.04</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>139.04</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>139.04</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>140.68</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>140.68</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>130.34</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>132.29</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>137.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>137.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>137.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>140.74</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>143.47</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>143.62</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>143.62</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>143.62</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>143.62</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>143.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>141.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>141.62</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>142.37</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>142.37</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>142.37</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>142.37</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>142.28</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>142.28</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>142.28</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>143.47</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>137.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>135.9</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>133.31</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>134.96</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>133.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>132.88</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>132.88</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>132.88</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>132.78</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>147.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>144.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>144.78</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>149.1</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>150.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>150.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>150.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>157.18</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>157.18</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>157.18</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>158.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$346</c:f>
+              <c:strCache>
+                <c:ptCount val="345"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$346</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="345"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.29000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.29000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.29000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.45999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.580000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.739999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.150000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.009999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.009999999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.009999999999991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55.509999999999991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86.449999999999989</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.03</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84.37</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.110000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83.41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105.19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>115.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>115.38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.38</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99.31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62.31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73.19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33.990000000000009</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-13.66</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.1899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.8100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.70999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.6299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.73999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.73999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14.73999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23.400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>30.38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31.19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>69.69</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>74.460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78.13</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>80.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>80.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>80.210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>78.41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>64.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>68.669999999999987</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>73.34</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>73.34</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>73.34</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>83.85</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>67.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>67.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>81.949999999999989</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>83.63</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>87.07</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>86.460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>95.87</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>93.93</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>93.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>89.07</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>92.03</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>91.03</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>91.03</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>91.03</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>94.490000000000009</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>93.15</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>94.949999999999989</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>97.830000000000013</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>95.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>95.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>95.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>95.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>95.740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>96.07</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>92.62</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>114.68</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>110.73</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>111.06</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>106.62</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>111.71</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>111.71</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>111.71</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>127.07</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>124.86</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>145.03</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>132.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>123.57</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>123.57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>123.57</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>136.87</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>134.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>137.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>139.99</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>139.26</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>139.26</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>139.26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>137.68</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>139.47</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>129.68</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>135.69</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>129.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>129.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>129.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>141.28</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>158.12</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>167.64</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>188.92</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>188.92</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>188.92</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>188.92</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>227.87</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>232.24</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>233.29</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>269.24</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>269.24</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>269.24</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>257.86</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>262.58</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>269.56</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>258.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>258.76</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>258.76</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>258.76</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>292.75</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>274.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>280.63</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>261.69</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>238.72</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>238.72</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>238.72</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>268.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>252.94</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>258.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>255.57</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>242.01</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>242.01</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>242.01</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>254.98</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>255.46</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>254.98</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>256.07</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>247.26</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>247.26</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>247.26</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>239.1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>228.54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>271.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>287.49</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>294.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>294.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>294.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>338.8</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>351.1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>349.05</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>378.52</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>390.03</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>390.03</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>390.03</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>381.48</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>383.67</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>414.7</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>435.16</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>429.1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>429.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>429.1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>495.6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>467.79</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>434.7</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>386.45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>399.98</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>399.98</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>399.98</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>399.98</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>294.67</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>337.78</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>343.83</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>345.48</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>345.48</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>345.48</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>401.54</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>437.55999999999989</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>406.09</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>428.47</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>428.47</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>428.47</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>437.12</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>407.05</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>354.61</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>363.49</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>386.86</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>386.86</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>386.86</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>403.43</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>400.88</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>412.76</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>435.65</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>396.12</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>396.12</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>396.12</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>408.78</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>394.8</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>408.33</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>409.07</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>418.72</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>418.72</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>418.72</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>428.64</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>433.84</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>451.35</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>436.51</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>425.5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>425.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>425.5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>414.94000000000011</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>404.31</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>405.15</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>408.91</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>402.74</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>402.74</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>402.74</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>402.33</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>407.58</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>385.28</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>391.03</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>363.79</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>363.79</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>363.79</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>378.7</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>406.65</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>403.16</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>423.61</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>413.88</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>413.88</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>413.88</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>403.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>390.47</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>398.56</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>392.14</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>388.25</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>388.25</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>388.25</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>387.76</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>427.82000000000011</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>481.64</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>496.74</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>485.19000000000011</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>485.19000000000011</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>485.19000000000011</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>523.73</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>563.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>586.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>586.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>600.11</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>600.11</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>600.11</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>578.41</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>598.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>579.86</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>609.22</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>615.98</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>615.98</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>615.98</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>667.04</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>676.75</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>622.49</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>633.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="595880320"/>
+        <c:axId val="595878752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595880320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595878752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595878752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595880320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1154,9 +6235,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,9 +6269,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,9 +6304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1397,14 +6480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1434,10 +6519,10 @@
         <v>2.370000000000005</v>
       </c>
       <c r="C3">
-        <v>2.849999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.8499999999999939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1445,10 +6530,10 @@
         <v>2.370000000000005</v>
       </c>
       <c r="C4">
-        <v>5.890000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5.8900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1456,10 +6541,10 @@
         <v>2.370000000000005</v>
       </c>
       <c r="C5">
-        <v>5.890000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>5.8900000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1467,87 +6552,87 @@
         <v>2.370000000000005</v>
       </c>
       <c r="C6">
-        <v>5.890000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>5.8900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4.010000000000005</v>
+        <v>4.0100000000000051</v>
       </c>
       <c r="C7">
-        <v>7.930000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7.9300000000000068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C8">
         <v>12.12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C9">
         <v>17.64</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C10">
         <v>15.06</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C11">
         <v>14.29000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C12">
         <v>14.29000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>7.379999999999995</v>
+        <v>7.3799999999999946</v>
       </c>
       <c r="C13">
         <v>14.29000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +6643,7 @@
         <v>25.45999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1566,10 +6651,10 @@
         <v>16.12</v>
       </c>
       <c r="C15">
-        <v>28.58000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>28.580000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +6665,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1588,10 +6673,10 @@
         <v>15.18000000000001</v>
       </c>
       <c r="C17">
-        <v>22.73999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>22.739999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +6687,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +6698,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +6709,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1635,73 +6720,73 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C22">
-        <v>30.80000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>30.800000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C23">
-        <v>36.15000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>36.150000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C24">
         <v>36.78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C25">
-        <v>35.00999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>35.009999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C26">
-        <v>35.00999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>35.009999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>21.48999999999999</v>
+        <v>21.489999999999991</v>
       </c>
       <c r="C27">
-        <v>35.00999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>35.009999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1709,10 +6794,10 @@
         <v>20.29000000000001</v>
       </c>
       <c r="C28">
-        <v>33.38999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>33.389999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1720,10 +6805,10 @@
         <v>21.88</v>
       </c>
       <c r="C29">
-        <v>35.50999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>35.509999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1731,10 +6816,10 @@
         <v>24.37</v>
       </c>
       <c r="C30">
-        <v>38.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1742,10 +6827,10 @@
         <v>24.37</v>
       </c>
       <c r="C31">
-        <v>53.18000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>53.180000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1753,10 +6838,10 @@
         <v>24.37</v>
       </c>
       <c r="C32">
-        <v>55.50999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>55.509999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1764,10 +6849,10 @@
         <v>24.37</v>
       </c>
       <c r="C33">
-        <v>55.50999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>55.509999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1775,87 +6860,87 @@
         <v>24.37</v>
       </c>
       <c r="C34">
-        <v>55.50999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>55.509999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>44.25999999999999</v>
+        <v>44.259999999999991</v>
       </c>
       <c r="C35">
-        <v>86.44999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>86.449999999999989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>44.25999999999999</v>
+        <v>44.259999999999991</v>
       </c>
       <c r="C36">
         <v>112.04</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>44.25999999999999</v>
+        <v>44.259999999999991</v>
       </c>
       <c r="C37">
         <v>75.62</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>46.19999999999999</v>
+        <v>46.199999999999989</v>
       </c>
       <c r="C38">
         <v>79.03</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>46.08000000000001</v>
+        <v>46.080000000000013</v>
       </c>
       <c r="C39">
-        <v>78.81999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>78.819999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>46.08000000000001</v>
+        <v>46.080000000000013</v>
       </c>
       <c r="C40">
-        <v>78.81999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>78.819999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>46.08000000000001</v>
+        <v>46.080000000000013</v>
       </c>
       <c r="C41">
-        <v>78.81999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>78.819999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +6951,7 @@
         <v>84.37</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1874,10 +6959,10 @@
         <v>49.59</v>
       </c>
       <c r="C43">
-        <v>85.11000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>85.110000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1888,7 +6973,7 @@
         <v>83.41</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +6984,7 @@
         <v>92.19</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1907,10 +6992,10 @@
         <v>54.37</v>
       </c>
       <c r="C46">
-        <v>91.24000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>91.240000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1918,10 +7003,10 @@
         <v>54.37</v>
       </c>
       <c r="C47">
-        <v>91.24000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>91.240000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1929,10 +7014,10 @@
         <v>54.37</v>
       </c>
       <c r="C48">
-        <v>91.24000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>91.240000000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1940,109 +7025,109 @@
         <v>54.37</v>
       </c>
       <c r="C49">
-        <v>91.24000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>91.240000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C50">
         <v>105.19</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C51">
         <v>119.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C52">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C53">
         <v>115.38</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C54">
         <v>115.38</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>61.66999999999999</v>
+        <v>61.669999999999987</v>
       </c>
       <c r="C55">
         <v>115.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>54.21000000000001</v>
+        <v>54.210000000000008</v>
       </c>
       <c r="C56">
         <v>99.31</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>50.13999999999999</v>
+        <v>50.139999999999993</v>
       </c>
       <c r="C57">
-        <v>91.21000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>91.210000000000008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>47.50999999999999</v>
+        <v>47.509999999999991</v>
       </c>
       <c r="C58">
         <v>86.16</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2053,84 +7138,84 @@
         <v>62.31</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C60">
-        <v>59.68000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>59.680000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C61">
-        <v>59.68000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>59.680000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C62">
-        <v>59.68000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>59.680000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C63">
         <v>77.75</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C64">
-        <v>78.21000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>78.210000000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C65">
         <v>79.16</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>33.06999999999999</v>
+        <v>33.069999999999993</v>
       </c>
       <c r="C66">
         <v>73.19</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2141,7 +7226,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2152,7 +7237,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2163,7 +7248,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2171,98 +7256,98 @@
         <v>30.16</v>
       </c>
       <c r="C70">
-        <v>45.33000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>45.330000000000013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>36.30000000000001</v>
+        <v>36.300000000000011</v>
       </c>
       <c r="C71">
-        <v>54.25999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>54.259999999999991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>34.58000000000001</v>
+        <v>34.580000000000013</v>
       </c>
       <c r="C72">
-        <v>51.59999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>51.599999999999987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>34.58000000000001</v>
+        <v>34.580000000000013</v>
       </c>
       <c r="C73">
-        <v>33.99000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>33.990000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>32.09999999999999</v>
+        <v>32.099999999999987</v>
       </c>
       <c r="C74">
         <v>30.66</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>32.09999999999999</v>
+        <v>32.099999999999987</v>
       </c>
       <c r="C75">
         <v>30.66</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>32.09999999999999</v>
+        <v>32.099999999999987</v>
       </c>
       <c r="C76">
         <v>30.66</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>32.09999999999999</v>
+        <v>32.099999999999987</v>
       </c>
       <c r="C77">
-        <v>6.390000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>6.3900000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>28.75999999999999</v>
+        <v>28.759999999999991</v>
       </c>
       <c r="C78">
-        <v>2.829999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>2.8299999999999979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2273,7 +7358,7 @@
         <v>-13.66</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2281,10 +7366,10 @@
         <v>30</v>
       </c>
       <c r="C80">
-        <v>2.219999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>2.2199999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2292,10 +7377,10 @@
         <v>30</v>
       </c>
       <c r="C81">
-        <v>2.189999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>2.1899999999999982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2303,10 +7388,10 @@
         <v>30</v>
       </c>
       <c r="C82">
-        <v>2.189999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>2.1899999999999982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2314,10 +7399,10 @@
         <v>30</v>
       </c>
       <c r="C83">
-        <v>2.189999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>2.1899999999999982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2325,10 +7410,10 @@
         <v>30</v>
       </c>
       <c r="C84">
-        <v>3.810000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>3.8100000000000018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2339,7 +7424,7 @@
         <v>20.70999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2347,10 +7432,10 @@
         <v>30</v>
       </c>
       <c r="C86">
-        <v>28.90000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>28.900000000000009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2361,7 +7446,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2372,7 +7457,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2383,7 +7468,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2394,7 +7479,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2405,7 +7490,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2416,7 +7501,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2427,7 +7512,7 @@
         <v>15.11</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2435,10 +7520,10 @@
         <v>18.25</v>
       </c>
       <c r="C94">
-        <v>8.629999999999995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>8.6299999999999955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2449,7 +7534,7 @@
         <v>14.73999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2460,7 +7545,7 @@
         <v>14.73999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2471,84 +7556,84 @@
         <v>14.73999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C98">
-        <v>23.40000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>23.400000000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C99">
         <v>30.38</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C100">
         <v>31.19</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C101">
         <v>36.97</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C102">
         <v>36.97</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C103">
         <v>36.97</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>31.33000000000001</v>
+        <v>31.330000000000009</v>
       </c>
       <c r="C104">
         <v>36.97</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2556,10 +7641,10 @@
         <v>44.94</v>
       </c>
       <c r="C105">
-        <v>55.59999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>55.599999999999987</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2570,7 +7655,7 @@
         <v>69.69</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2578,10 +7663,10 @@
         <v>44.94</v>
       </c>
       <c r="C107">
-        <v>74.46000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>74.460000000000008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2592,7 +7677,7 @@
         <v>78.13</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2600,10 +7685,10 @@
         <v>44.94</v>
       </c>
       <c r="C109">
-        <v>80.21000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>80.210000000000008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2611,10 +7696,10 @@
         <v>44.94</v>
       </c>
       <c r="C110">
-        <v>80.21000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>80.210000000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2622,10 +7707,10 @@
         <v>44.94</v>
       </c>
       <c r="C111">
-        <v>80.21000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>80.210000000000008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2636,18 +7721,18 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>35.94999999999999</v>
+        <v>35.949999999999989</v>
       </c>
       <c r="C113">
-        <v>64.15000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>64.150000000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2658,7 +7743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2666,10 +7751,10 @@
         <v>38.94</v>
       </c>
       <c r="C115">
-        <v>68.66999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>68.669999999999987</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2680,7 +7765,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2691,7 +7776,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2702,7 +7787,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2710,10 +7795,10 @@
         <v>49.09</v>
       </c>
       <c r="C119">
-        <v>90.93000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>90.93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2721,10 +7806,10 @@
         <v>49.09</v>
       </c>
       <c r="C120">
-        <v>83.84999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2732,142 +7817,142 @@
         <v>49.09</v>
       </c>
       <c r="C121">
-        <v>91.34999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>91.35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122">
-        <v>46.75999999999999</v>
+        <v>46.759999999999991</v>
       </c>
       <c r="C122">
-        <v>86.90000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123">
-        <v>46.75999999999999</v>
+        <v>46.759999999999991</v>
       </c>
       <c r="C123">
-        <v>67.63999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>67.639999999999986</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>46.75999999999999</v>
+        <v>46.759999999999991</v>
       </c>
       <c r="C124">
-        <v>67.63999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>67.639999999999986</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125">
-        <v>46.75999999999999</v>
+        <v>46.759999999999991</v>
       </c>
       <c r="C125">
-        <v>67.63999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>67.639999999999986</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126">
-        <v>55.30000000000001</v>
+        <v>55.300000000000011</v>
       </c>
       <c r="C126">
-        <v>81.94999999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>81.949999999999989</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>55.30000000000001</v>
+        <v>55.300000000000011</v>
       </c>
       <c r="C127">
         <v>83.63</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>55.30000000000001</v>
+        <v>55.300000000000011</v>
       </c>
       <c r="C128">
-        <v>87.06999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>87.07</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>55.30000000000001</v>
+        <v>55.300000000000011</v>
       </c>
       <c r="C129">
-        <v>86.46000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>86.460000000000008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130">
-        <v>60.34999999999999</v>
+        <v>60.349999999999987</v>
       </c>
       <c r="C130">
         <v>95.87</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131">
-        <v>60.34999999999999</v>
+        <v>60.349999999999987</v>
       </c>
       <c r="C131">
         <v>95.87</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132">
-        <v>60.34999999999999</v>
+        <v>60.349999999999987</v>
       </c>
       <c r="C132">
         <v>95.87</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>59.36000000000001</v>
+        <v>59.360000000000007</v>
       </c>
       <c r="C133">
-        <v>93.93000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>93.93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -2878,18 +7963,18 @@
         <v>93.47999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>56.84999999999999</v>
+        <v>56.849999999999987</v>
       </c>
       <c r="C135">
-        <v>89.06999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>89.07</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -2900,139 +7985,139 @@
         <v>92.03</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>57.88999999999999</v>
+        <v>57.889999999999993</v>
       </c>
       <c r="C137">
         <v>91.03</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>57.88999999999999</v>
+        <v>57.889999999999993</v>
       </c>
       <c r="C138">
         <v>91.03</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>57.88999999999999</v>
+        <v>57.889999999999993</v>
       </c>
       <c r="C139">
         <v>91.03</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>59.69999999999999</v>
+        <v>59.699999999999989</v>
       </c>
       <c r="C140">
-        <v>94.49000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>94.490000000000009</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>59.69999999999999</v>
+        <v>59.699999999999989</v>
       </c>
       <c r="C141">
-        <v>93.15000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>60.63999999999999</v>
+        <v>60.639999999999993</v>
       </c>
       <c r="C142">
-        <v>94.94999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>94.949999999999989</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>62.11000000000001</v>
+        <v>62.110000000000007</v>
       </c>
       <c r="C143">
-        <v>97.83000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>97.830000000000013</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>62.11000000000001</v>
+        <v>62.110000000000007</v>
       </c>
       <c r="C144">
         <v>95.27000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>62.11000000000001</v>
+        <v>62.110000000000007</v>
       </c>
       <c r="C145">
         <v>95.27000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>62.11000000000001</v>
+        <v>62.110000000000007</v>
       </c>
       <c r="C146">
         <v>95.27000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>62.11000000000001</v>
+        <v>62.110000000000007</v>
       </c>
       <c r="C147">
         <v>95.27000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>62.34999999999999</v>
+        <v>62.349999999999987</v>
       </c>
       <c r="C148">
-        <v>95.74000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>95.740000000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3040,54 +8125,54 @@
         <v>62.52000000000001</v>
       </c>
       <c r="C149">
-        <v>96.06999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>96.07</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>60.75999999999999</v>
+        <v>60.759999999999991</v>
       </c>
       <c r="C150">
         <v>92.62</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>64.38999999999999</v>
+        <v>64.389999999999986</v>
       </c>
       <c r="C151">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>64.38999999999999</v>
+        <v>64.389999999999986</v>
       </c>
       <c r="C152">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>64.38999999999999</v>
+        <v>64.389999999999986</v>
       </c>
       <c r="C153">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3098,7 +8183,7 @@
         <v>114.68</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3109,7 +8194,7 @@
         <v>110.73</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3120,7 +8205,7 @@
         <v>111.06</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3131,40 +8216,40 @@
         <v>106.62</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
       <c r="B158">
-        <v>72.30000000000001</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="C158">
         <v>111.71</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
       <c r="B159">
-        <v>72.30000000000001</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="C159">
         <v>111.71</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
-        <v>72.30000000000001</v>
+        <v>72.300000000000011</v>
       </c>
       <c r="C160">
         <v>111.71</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3175,7 +8260,7 @@
         <v>127.07</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3186,7 +8271,7 @@
         <v>124.86</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3197,7 +8282,7 @@
         <v>145.03</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3205,10 +8290,10 @@
         <v>79.56</v>
       </c>
       <c r="C164">
-        <v>132.55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>132.55000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3219,7 +8304,7 @@
         <v>123.57</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3230,7 +8315,7 @@
         <v>123.57</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3241,7 +8326,7 @@
         <v>123.57</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3252,7 +8337,7 @@
         <v>136.87</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3260,10 +8345,10 @@
         <v>85.5</v>
       </c>
       <c r="C169">
-        <v>134.77</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>134.77000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3271,10 +8356,10 @@
         <v>85.5</v>
       </c>
       <c r="C170">
-        <v>137.08</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>137.08000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3285,7 +8370,7 @@
         <v>139.99</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3296,7 +8381,7 @@
         <v>139.26</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3307,7 +8392,7 @@
         <v>139.26</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3318,51 +8403,51 @@
         <v>139.26</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>86.06999999999999</v>
+        <v>86.07</v>
       </c>
       <c r="C175">
         <v>137.68</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>86.81999999999999</v>
+        <v>86.82</v>
       </c>
       <c r="C176">
         <v>139.47</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
       <c r="B177">
-        <v>82.74000000000001</v>
+        <v>82.740000000000009</v>
       </c>
       <c r="C177">
         <v>129.68</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
       <c r="B178">
-        <v>85.34999999999999</v>
+        <v>85.35</v>
       </c>
       <c r="C178">
         <v>135.69</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3370,10 +8455,10 @@
         <v>82.69</v>
       </c>
       <c r="C179">
-        <v>129.42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>129.41999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3381,10 +8466,10 @@
         <v>82.69</v>
       </c>
       <c r="C180">
-        <v>129.42</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>129.41999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3392,87 +8477,87 @@
         <v>82.69</v>
       </c>
       <c r="C181">
-        <v>129.42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>129.41999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
       <c r="B182">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C182">
         <v>141.28</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C183">
         <v>158.12</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
       <c r="B184">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C184">
         <v>167.64</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
       <c r="B185">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C185">
         <v>188.92</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
       <c r="B186">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C186">
         <v>188.92</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
       <c r="B187">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C187">
         <v>188.92</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
       <c r="B188">
-        <v>87.86000000000001</v>
+        <v>87.860000000000014</v>
       </c>
       <c r="C188">
         <v>188.92</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3483,7 +8568,7 @@
         <v>227.87</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3494,7 +8579,7 @@
         <v>232.24</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3505,7 +8590,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3516,7 +8601,7 @@
         <v>233.29</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3527,7 +8612,7 @@
         <v>269.24</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3538,7 +8623,7 @@
         <v>269.24</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3549,7 +8634,7 @@
         <v>269.24</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3560,7 +8645,7 @@
         <v>257.86</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3571,7 +8656,7 @@
         <v>262.58</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3582,7 +8667,7 @@
         <v>269.56</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3590,10 +8675,10 @@
         <v>114.37</v>
       </c>
       <c r="C199">
-        <v>258.72</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>258.72000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3604,7 +8689,7 @@
         <v>258.76</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3615,7 +8700,7 @@
         <v>258.76</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3626,7 +8711,7 @@
         <v>258.76</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3637,7 +8722,7 @@
         <v>292.75</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3645,10 +8730,10 @@
         <v>123.85</v>
       </c>
       <c r="C204">
-        <v>274.9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>274.89999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3659,7 +8744,7 @@
         <v>280.63</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3670,7 +8755,7 @@
         <v>261.69</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3681,7 +8766,7 @@
         <v>238.72</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3692,7 +8777,7 @@
         <v>238.72</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -3703,7 +8788,7 @@
         <v>238.72</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -3711,10 +8796,10 @@
         <v>112.52</v>
       </c>
       <c r="C210">
-        <v>268.03</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>268.02999999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -3725,7 +8810,7 @@
         <v>252.94</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -3733,10 +8818,10 @@
         <v>112.52</v>
       </c>
       <c r="C212">
-        <v>258.35</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>258.35000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -3747,7 +8832,7 @@
         <v>255.57</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -3758,7 +8843,7 @@
         <v>242.01</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -3769,7 +8854,7 @@
         <v>242.01</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -3780,7 +8865,7 @@
         <v>242.01</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -3791,7 +8876,7 @@
         <v>254.98</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -3802,7 +8887,7 @@
         <v>255.46</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -3813,7 +8898,7 @@
         <v>254.98</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -3824,7 +8909,7 @@
         <v>256.07</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -3835,7 +8920,7 @@
         <v>247.26</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -3846,7 +8931,7 @@
         <v>247.26</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +8942,7 @@
         <v>247.26</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -3868,7 +8953,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -3879,7 +8964,7 @@
         <v>228.54</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -3887,10 +8972,10 @@
         <v>120.72</v>
       </c>
       <c r="C226">
-        <v>271.65</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>271.64999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -3901,7 +8986,7 @@
         <v>287.49</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -3909,10 +8994,10 @@
         <v>120.72</v>
       </c>
       <c r="C228">
-        <v>294.59</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>294.58999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -3920,10 +9005,10 @@
         <v>120.72</v>
       </c>
       <c r="C229">
-        <v>294.59</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>294.58999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -3931,10 +9016,10 @@
         <v>120.72</v>
       </c>
       <c r="C230">
-        <v>294.59</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>294.58999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -3945,7 +9030,7 @@
         <v>338.8</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -3956,7 +9041,7 @@
         <v>351.1</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -3967,7 +9052,7 @@
         <v>349.05</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -3978,7 +9063,7 @@
         <v>378.52</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -3989,7 +9074,7 @@
         <v>390.03</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -4000,7 +9085,7 @@
         <v>390.03</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -4011,7 +9096,7 @@
         <v>390.03</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4022,73 +9107,73 @@
         <v>381.48</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>130.64</v>
+        <v>130.63999999999999</v>
       </c>
       <c r="C239">
         <v>383.67</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
       <c r="B240">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C240">
         <v>414.7</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
       <c r="B241">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C241">
         <v>435.16</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
       <c r="B242">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C242">
         <v>429.1</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
       <c r="B243">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C243">
         <v>429.1</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
       <c r="B244">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="C244">
         <v>429.1</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -4099,7 +9184,7 @@
         <v>495.6</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4110,7 +9195,7 @@
         <v>467.79</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -4121,7 +9206,7 @@
         <v>434.7</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -4132,7 +9217,7 @@
         <v>386.45</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -4143,7 +9228,7 @@
         <v>399.98</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -4154,7 +9239,7 @@
         <v>399.98</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4165,7 +9250,7 @@
         <v>399.98</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4176,7 +9261,7 @@
         <v>399.98</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -4187,7 +9272,7 @@
         <v>294.67</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -4198,7 +9283,7 @@
         <v>337.78</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -4209,7 +9294,7 @@
         <v>343.83</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -4220,7 +9305,7 @@
         <v>345.48</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -4231,7 +9316,7 @@
         <v>345.48</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -4242,7 +9327,7 @@
         <v>345.48</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -4253,7 +9338,7 @@
         <v>401.54</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4261,10 +9346,10 @@
         <v>134.62</v>
       </c>
       <c r="C260">
-        <v>437.5599999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>437.55999999999989</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -4275,7 +9360,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -4286,7 +9371,7 @@
         <v>406.09</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -4297,7 +9382,7 @@
         <v>428.47</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -4308,7 +9393,7 @@
         <v>428.47</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -4319,7 +9404,7 @@
         <v>428.47</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -4330,7 +9415,7 @@
         <v>437.12</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -4341,7 +9426,7 @@
         <v>407.05</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -4352,7 +9437,7 @@
         <v>354.61</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -4363,40 +9448,40 @@
         <v>363.49</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270">
-        <v>137.33</v>
+        <v>137.33000000000001</v>
       </c>
       <c r="C270">
         <v>386.86</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271">
-        <v>137.33</v>
+        <v>137.33000000000001</v>
       </c>
       <c r="C271">
         <v>386.86</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272">
-        <v>137.33</v>
+        <v>137.33000000000001</v>
       </c>
       <c r="C272">
         <v>386.86</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -4407,7 +9492,7 @@
         <v>403.43</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -4418,7 +9503,7 @@
         <v>400.88</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -4429,7 +9514,7 @@
         <v>412.76</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -4440,7 +9525,7 @@
         <v>435.65</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -4451,7 +9536,7 @@
         <v>396.12</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -4462,7 +9547,7 @@
         <v>396.12</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -4473,7 +9558,7 @@
         <v>396.12</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -4484,7 +9569,7 @@
         <v>408.78</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -4495,7 +9580,7 @@
         <v>394.8</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4506,7 +9591,7 @@
         <v>408.33</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -4517,7 +9602,7 @@
         <v>409.07</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -4528,7 +9613,7 @@
         <v>418.72</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -4539,7 +9624,7 @@
         <v>418.72</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -4550,7 +9635,7 @@
         <v>418.72</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -4561,7 +9646,7 @@
         <v>428.64</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -4572,7 +9657,7 @@
         <v>433.84</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -4583,7 +9668,7 @@
         <v>451.35</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -4594,7 +9679,7 @@
         <v>436.51</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -4605,7 +9690,7 @@
         <v>425.5</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -4616,7 +9701,7 @@
         <v>425.5</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -4627,29 +9712,29 @@
         <v>425.5</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>143.52</v>
+        <v>143.52000000000001</v>
       </c>
       <c r="C294">
-        <v>414.9400000000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>414.94000000000011</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>141.45</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="C295">
         <v>404.31</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -4660,7 +9745,7 @@
         <v>405.15</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -4671,7 +9756,7 @@
         <v>408.91</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -4682,7 +9767,7 @@
         <v>402.74</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -4693,7 +9778,7 @@
         <v>402.74</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -4704,7 +9789,7 @@
         <v>402.74</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -4715,7 +9800,7 @@
         <v>402.33</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -4726,7 +9811,7 @@
         <v>407.58</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -4737,7 +9822,7 @@
         <v>385.28</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -4748,117 +9833,117 @@
         <v>391.03</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>306</v>
       </c>
       <c r="B305">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C305">
         <v>363.79</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>307</v>
       </c>
       <c r="B306">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C306">
         <v>363.79</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>308</v>
       </c>
       <c r="B307">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C307">
         <v>363.79</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>309</v>
       </c>
       <c r="B308">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C308">
         <v>378.7</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>310</v>
       </c>
       <c r="B309">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C309">
         <v>406.65</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>311</v>
       </c>
       <c r="B310">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C310">
         <v>403.16</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>312</v>
       </c>
       <c r="B311">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C311">
         <v>423.61</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>313</v>
       </c>
       <c r="B312">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C312">
         <v>413.88</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C313">
         <v>413.88</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>315</v>
       </c>
       <c r="B314">
-        <v>137.92</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="C314">
         <v>413.88</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -4869,7 +9954,7 @@
         <v>403.5</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -4880,7 +9965,7 @@
         <v>390.47</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -4891,18 +9976,18 @@
         <v>398.56</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>319</v>
       </c>
       <c r="B318">
-        <v>133.67</v>
+        <v>133.66999999999999</v>
       </c>
       <c r="C318">
         <v>392.14</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -4913,7 +9998,7 @@
         <v>388.25</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -4924,7 +10009,7 @@
         <v>388.25</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -4935,7 +10020,7 @@
         <v>388.25</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4946,7 +10031,7 @@
         <v>387.76</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -4954,10 +10039,10 @@
         <v>141</v>
       </c>
       <c r="C323">
-        <v>427.8200000000001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>427.82000000000011</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4968,7 +10053,7 @@
         <v>481.64</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -4979,7 +10064,7 @@
         <v>496.74</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -4987,10 +10072,10 @@
         <v>141</v>
       </c>
       <c r="C326">
-        <v>485.1900000000001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>485.19000000000011</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -4998,10 +10083,10 @@
         <v>141</v>
       </c>
       <c r="C327">
-        <v>485.1900000000001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>485.19000000000011</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -5009,98 +10094,98 @@
         <v>141</v>
       </c>
       <c r="C328">
-        <v>485.1900000000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
+        <v>485.19000000000011</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>330</v>
       </c>
       <c r="B329">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C329">
         <v>523.73</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>331</v>
       </c>
       <c r="B330">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C330">
-        <v>563.8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>563.79999999999995</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>332</v>
       </c>
       <c r="B331">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C331">
-        <v>586.0599999999999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
+        <v>586.05999999999995</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>333</v>
       </c>
       <c r="B332">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C332">
-        <v>586.0599999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
+        <v>586.05999999999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>334</v>
       </c>
       <c r="B333">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C333">
         <v>600.11</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>335</v>
       </c>
       <c r="B334">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C334">
         <v>600.11</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>336</v>
       </c>
       <c r="B335">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="C335">
         <v>600.11</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>337</v>
       </c>
       <c r="B336">
-        <v>144.48</v>
+        <v>144.47999999999999</v>
       </c>
       <c r="C336">
         <v>578.41</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -5108,10 +10193,10 @@
         <v>147.5</v>
       </c>
       <c r="C337">
-        <v>598.92</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+        <v>598.91999999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -5122,7 +10207,7 @@
         <v>579.86</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -5133,40 +10218,40 @@
         <v>609.22</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>341</v>
       </c>
       <c r="B340">
-        <v>150.05</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="C340">
         <v>615.98</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>342</v>
       </c>
       <c r="B341">
-        <v>150.05</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="C341">
         <v>615.98</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>343</v>
       </c>
       <c r="B342">
-        <v>150.05</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="C342">
         <v>615.98</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -5177,7 +10262,7 @@
         <v>667.04</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -5188,7 +10273,7 @@
         <v>676.75</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -5199,7 +10284,7 @@
         <v>622.49</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -5212,5 +10297,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_TSLA_nodeduct.pkl.xlsx
+++ b/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_TSLA_nodeduct.pkl.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
@@ -1063,6 +1057,12 @@
   </si>
   <si>
     <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
 </sst>
 </file>
@@ -1141,6 +1141,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AI gen 2 versus Tesla, 1 januari 2020 - 10 december 2020, percentages </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1154,13 +1198,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1186,7 +1244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percentage</c:v>
+                  <c:v>AI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5416,16 +5474,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="595880320"/>
-        <c:axId val="595878752"/>
+        <c:axId val="534188048"/>
+        <c:axId val="534189616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="595880320"/>
+        <c:axId val="534188048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Datum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5463,7 +5577,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595878752"/>
+        <c:crossAx val="534189616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5471,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595878752"/>
+        <c:axId val="534189616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5491,6 +5605,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Percentage winst/verlies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5522,7 +5692,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595880320"/>
+        <c:crossAx val="534188048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6484,25 +6654,25 @@
   <dimension ref="A1:C346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6513,7 +6683,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2.370000000000005</v>
@@ -6524,7 +6694,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2.370000000000005</v>
@@ -6535,7 +6705,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2.370000000000005</v>
@@ -6546,7 +6716,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.370000000000005</v>
@@ -6557,7 +6727,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>4.0100000000000051</v>
@@ -6568,7 +6738,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7.3799999999999946</v>
@@ -6579,7 +6749,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>7.3799999999999946</v>
@@ -6590,7 +6760,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>7.3799999999999946</v>
@@ -6601,7 +6771,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>7.3799999999999946</v>
@@ -6612,7 +6782,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>7.3799999999999946</v>
@@ -6623,7 +6793,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>7.3799999999999946</v>
@@ -6634,7 +6804,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16.12</v>
@@ -6645,7 +6815,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>16.12</v>
@@ -6656,7 +6826,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>16.12</v>
@@ -6667,7 +6837,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>15.18000000000001</v>
@@ -6678,7 +6848,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>14.63</v>
@@ -6689,7 +6859,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>14.63</v>
@@ -6700,7 +6870,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>14.63</v>
@@ -6711,7 +6881,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>14.63</v>
@@ -6722,7 +6892,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>21.489999999999991</v>
@@ -6733,7 +6903,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>21.489999999999991</v>
@@ -6744,7 +6914,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>21.489999999999991</v>
@@ -6755,7 +6925,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>21.489999999999991</v>
@@ -6766,7 +6936,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>21.489999999999991</v>
@@ -6777,7 +6947,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>21.489999999999991</v>
@@ -6788,7 +6958,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>20.29000000000001</v>
@@ -6799,7 +6969,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>21.88</v>
@@ -6810,7 +6980,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>24.37</v>
@@ -6821,7 +6991,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>24.37</v>
@@ -6832,7 +7002,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>24.37</v>
@@ -6843,7 +7013,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>24.37</v>
@@ -6854,7 +7024,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>24.37</v>
@@ -6865,7 +7035,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>44.259999999999991</v>
@@ -6876,7 +7046,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>44.259999999999991</v>
@@ -6887,7 +7057,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>44.259999999999991</v>
@@ -6898,7 +7068,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>46.199999999999989</v>
@@ -6909,7 +7079,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>46.080000000000013</v>
@@ -6920,7 +7090,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>46.080000000000013</v>
@@ -6931,7 +7101,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>46.080000000000013</v>
@@ -6942,7 +7112,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>49.19</v>
@@ -6953,7 +7123,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>49.59</v>
@@ -6964,7 +7134,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>49.59</v>
@@ -6975,7 +7145,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>54.37</v>
@@ -6986,7 +7156,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>54.37</v>
@@ -6997,7 +7167,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>54.37</v>
@@ -7008,7 +7178,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>54.37</v>
@@ -7019,7 +7189,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>54.37</v>
@@ -7030,7 +7200,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>61.669999999999987</v>
@@ -7041,7 +7211,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>61.669999999999987</v>
@@ -7052,7 +7222,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>61.669999999999987</v>
@@ -7063,7 +7233,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>61.669999999999987</v>
@@ -7074,7 +7244,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>61.669999999999987</v>
@@ -7085,7 +7255,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>61.669999999999987</v>
@@ -7096,7 +7266,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>54.210000000000008</v>
@@ -7107,7 +7277,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>50.139999999999993</v>
@@ -7118,7 +7288,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>47.509999999999991</v>
@@ -7129,7 +7299,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>34.69</v>
@@ -7140,7 +7310,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>33.069999999999993</v>
@@ -7151,7 +7321,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>33.069999999999993</v>
@@ -7162,7 +7332,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>33.069999999999993</v>
@@ -7173,7 +7343,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>33.069999999999993</v>
@@ -7184,7 +7354,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>33.069999999999993</v>
@@ -7195,7 +7365,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>33.069999999999993</v>
@@ -7206,7 +7376,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>33.069999999999993</v>
@@ -7217,7 +7387,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>30.16</v>
@@ -7228,7 +7398,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>30.16</v>
@@ -7239,7 +7409,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>30.16</v>
@@ -7250,7 +7420,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>30.16</v>
@@ -7261,7 +7431,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>36.300000000000011</v>
@@ -7272,7 +7442,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>34.580000000000013</v>
@@ -7283,7 +7453,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>34.580000000000013</v>
@@ -7294,7 +7464,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>32.099999999999987</v>
@@ -7305,7 +7475,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>32.099999999999987</v>
@@ -7316,7 +7486,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>32.099999999999987</v>
@@ -7327,7 +7497,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>32.099999999999987</v>
@@ -7338,7 +7508,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>28.759999999999991</v>
@@ -7349,7 +7519,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>12.72</v>
@@ -7360,7 +7530,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>30</v>
@@ -7371,7 +7541,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>30</v>
@@ -7382,7 +7552,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>30</v>
@@ -7393,7 +7563,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>30</v>
@@ -7404,7 +7574,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -7415,7 +7585,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>30</v>
@@ -7426,7 +7596,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>30</v>
@@ -7437,7 +7607,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -7448,7 +7618,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>30</v>
@@ -7459,7 +7629,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>30</v>
@@ -7470,7 +7640,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>30</v>
@@ -7481,7 +7651,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>27.62</v>
@@ -7492,7 +7662,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>31.97</v>
@@ -7503,7 +7673,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>23.87</v>
@@ -7514,7 +7684,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>18.25</v>
@@ -7525,7 +7695,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>23.79000000000001</v>
@@ -7536,7 +7706,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>23.79000000000001</v>
@@ -7547,7 +7717,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>23.79000000000001</v>
@@ -7558,7 +7728,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>31.330000000000009</v>
@@ -7569,7 +7739,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>31.330000000000009</v>
@@ -7580,7 +7750,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>31.330000000000009</v>
@@ -7591,7 +7761,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>31.330000000000009</v>
@@ -7602,7 +7772,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>31.330000000000009</v>
@@ -7613,7 +7783,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>31.330000000000009</v>
@@ -7624,7 +7794,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>31.330000000000009</v>
@@ -7635,7 +7805,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>44.94</v>
@@ -7646,7 +7816,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>44.94</v>
@@ -7657,7 +7827,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>44.94</v>
@@ -7668,7 +7838,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>44.94</v>
@@ -7679,7 +7849,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>44.94</v>
@@ -7690,7 +7860,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>44.94</v>
@@ -7701,7 +7871,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>44.94</v>
@@ -7712,7 +7882,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>43.94</v>
@@ -7723,7 +7893,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>35.949999999999989</v>
@@ -7734,7 +7904,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>42.56</v>
@@ -7745,7 +7915,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>38.94</v>
@@ -7756,7 +7926,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>38.94</v>
@@ -7767,7 +7937,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>38.94</v>
@@ -7778,7 +7948,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>38.94</v>
@@ -7789,7 +7959,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>49.09</v>
@@ -7800,7 +7970,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>49.09</v>
@@ -7811,7 +7981,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>49.09</v>
@@ -7822,7 +7992,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>46.759999999999991</v>
@@ -7833,7 +8003,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>46.759999999999991</v>
@@ -7844,7 +8014,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>46.759999999999991</v>
@@ -7855,7 +8025,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>46.759999999999991</v>
@@ -7866,7 +8036,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>55.300000000000011</v>
@@ -7877,7 +8047,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>55.300000000000011</v>
@@ -7888,7 +8058,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>55.300000000000011</v>
@@ -7899,7 +8069,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>55.300000000000011</v>
@@ -7910,7 +8080,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>60.349999999999987</v>
@@ -7921,7 +8091,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>60.349999999999987</v>
@@ -7932,7 +8102,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>60.349999999999987</v>
@@ -7943,7 +8113,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>59.360000000000007</v>
@@ -7954,7 +8124,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>59.12</v>
@@ -7965,7 +8135,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>56.849999999999987</v>
@@ -7976,7 +8146,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>58.41</v>
@@ -7987,7 +8157,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>57.889999999999993</v>
@@ -7998,7 +8168,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>57.889999999999993</v>
@@ -8009,7 +8179,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>57.889999999999993</v>
@@ -8020,7 +8190,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>59.699999999999989</v>
@@ -8031,7 +8201,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>59.699999999999989</v>
@@ -8042,7 +8212,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>60.639999999999993</v>
@@ -8053,7 +8223,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>62.110000000000007</v>
@@ -8064,7 +8234,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>62.110000000000007</v>
@@ -8075,7 +8245,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>62.110000000000007</v>
@@ -8086,7 +8256,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>62.110000000000007</v>
@@ -8097,7 +8267,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>62.110000000000007</v>
@@ -8108,7 +8278,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>62.349999999999987</v>
@@ -8119,7 +8289,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>62.52000000000001</v>
@@ -8130,7 +8300,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>60.759999999999991</v>
@@ -8141,7 +8311,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>64.389999999999986</v>
@@ -8152,7 +8322,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>64.389999999999986</v>
@@ -8163,7 +8333,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>64.389999999999986</v>
@@ -8174,7 +8344,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>71.94</v>
@@ -8185,7 +8355,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>71.94</v>
@@ -8196,7 +8366,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>71.94</v>
@@ -8207,7 +8377,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>69.84</v>
@@ -8218,7 +8388,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>72.300000000000011</v>
@@ -8229,7 +8399,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>72.300000000000011</v>
@@ -8240,7 +8410,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>72.300000000000011</v>
@@ -8251,7 +8421,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>79.56</v>
@@ -8262,7 +8432,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>79.56</v>
@@ -8273,7 +8443,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>79.56</v>
@@ -8284,7 +8454,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>79.56</v>
@@ -8295,7 +8465,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>79.56</v>
@@ -8306,7 +8476,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>79.56</v>
@@ -8317,7 +8487,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>79.56</v>
@@ -8328,7 +8498,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>85.5</v>
@@ -8339,7 +8509,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>85.5</v>
@@ -8350,7 +8520,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>85.5</v>
@@ -8361,7 +8531,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>86.72999999999999</v>
@@ -8372,7 +8542,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>86.72999999999999</v>
@@ -8383,7 +8553,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>86.72999999999999</v>
@@ -8394,7 +8564,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>86.72999999999999</v>
@@ -8405,7 +8575,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>86.07</v>
@@ -8416,7 +8586,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>86.82</v>
@@ -8427,7 +8597,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>82.740000000000009</v>
@@ -8438,7 +8608,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>85.35</v>
@@ -8449,7 +8619,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>82.69</v>
@@ -8460,7 +8630,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>82.69</v>
@@ -8471,7 +8641,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>82.69</v>
@@ -8482,7 +8652,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>87.860000000000014</v>
@@ -8493,7 +8663,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>87.860000000000014</v>
@@ -8504,7 +8674,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>87.860000000000014</v>
@@ -8515,7 +8685,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>87.860000000000014</v>
@@ -8526,7 +8696,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>87.860000000000014</v>
@@ -8537,7 +8707,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>87.860000000000014</v>
@@ -8548,7 +8718,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>87.860000000000014</v>
@@ -8559,7 +8729,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>101.34</v>
@@ -8570,7 +8740,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>101.34</v>
@@ -8581,7 +8751,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>101.34</v>
@@ -8592,7 +8762,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>103.42</v>
@@ -8603,7 +8773,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>114.2</v>
@@ -8614,7 +8784,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>114.2</v>
@@ -8625,7 +8795,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>114.2</v>
@@ -8636,7 +8806,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>111.12</v>
@@ -8647,7 +8817,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>112.44</v>
@@ -8658,7 +8828,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>114.37</v>
@@ -8669,7 +8839,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>114.37</v>
@@ -8680,7 +8850,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>114.38</v>
@@ -8691,7 +8861,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>114.38</v>
@@ -8702,7 +8872,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>114.38</v>
@@ -8713,7 +8883,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>123.85</v>
@@ -8724,7 +8894,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>123.85</v>
@@ -8735,7 +8905,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>123.85</v>
@@ -8746,7 +8916,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>118.87</v>
@@ -8757,7 +8927,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>112.52</v>
@@ -8768,7 +8938,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>112.52</v>
@@ -8779,7 +8949,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>112.52</v>
@@ -8790,7 +8960,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>112.52</v>
@@ -8801,7 +8971,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>112.52</v>
@@ -8812,7 +8982,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>112.52</v>
@@ -8823,7 +8993,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>111.75</v>
@@ -8834,7 +9004,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>111.75</v>
@@ -8845,7 +9015,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>111.75</v>
@@ -8856,7 +9026,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>111.75</v>
@@ -8867,7 +9037,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>115.54</v>
@@ -8878,7 +9048,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>115.54</v>
@@ -8889,7 +9059,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>115.54</v>
@@ -8900,7 +9070,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>115.54</v>
@@ -8911,7 +9081,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>113.07</v>
@@ -8922,7 +9092,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>113.07</v>
@@ -8933,7 +9103,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>113.07</v>
@@ -8944,7 +9114,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>110.72</v>
@@ -8955,7 +9125,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>107.6</v>
@@ -8966,7 +9136,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>120.72</v>
@@ -8977,7 +9147,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>120.72</v>
@@ -8988,7 +9158,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>120.72</v>
@@ -8999,7 +9169,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>120.72</v>
@@ -9010,7 +9180,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>120.72</v>
@@ -9021,7 +9191,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>131.93</v>
@@ -9032,7 +9202,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>131.93</v>
@@ -9043,7 +9213,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>131.93</v>
@@ -9054,7 +9224,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>131.93</v>
@@ -9065,7 +9235,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>131.93</v>
@@ -9076,7 +9246,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>131.93</v>
@@ -9087,7 +9257,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>131.93</v>
@@ -9098,7 +9268,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>130.18</v>
@@ -9109,7 +9279,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>130.63999999999999</v>
@@ -9120,7 +9290,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>137.05000000000001</v>
@@ -9131,7 +9301,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>137.05000000000001</v>
@@ -9142,7 +9312,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>137.05000000000001</v>
@@ -9153,7 +9323,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>137.05000000000001</v>
@@ -9164,7 +9334,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>137.05000000000001</v>
@@ -9175,7 +9345,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>149.62</v>
@@ -9186,7 +9356,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>149.62</v>
@@ -9197,7 +9367,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>149.62</v>
@@ -9208,7 +9378,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>140.6</v>
@@ -9219,7 +9389,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>143.38</v>
@@ -9230,7 +9400,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>143.38</v>
@@ -9241,7 +9411,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>143.38</v>
@@ -9252,7 +9422,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>143.38</v>
@@ -9263,7 +9433,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>122.32</v>
@@ -9274,7 +9444,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>133.24</v>
@@ -9285,7 +9455,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>134.62</v>
@@ -9296,7 +9466,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>134.62</v>
@@ -9307,7 +9477,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>134.62</v>
@@ -9318,7 +9488,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>134.62</v>
@@ -9329,7 +9499,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>134.62</v>
@@ -9340,7 +9510,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>134.62</v>
@@ -9351,7 +9521,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>134.62</v>
@@ -9362,7 +9532,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>134.62</v>
@@ -9373,7 +9543,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>139.04</v>
@@ -9384,7 +9554,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>139.04</v>
@@ -9395,7 +9565,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>139.04</v>
@@ -9406,7 +9576,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>140.68</v>
@@ -9417,7 +9587,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>140.68</v>
@@ -9428,7 +9598,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>130.34</v>
@@ -9439,7 +9609,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>132.29</v>
@@ -9450,7 +9620,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>137.33000000000001</v>
@@ -9461,7 +9631,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>137.33000000000001</v>
@@ -9472,7 +9642,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>137.33000000000001</v>
@@ -9483,7 +9653,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>140.74</v>
@@ -9494,7 +9664,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>140.74</v>
@@ -9505,7 +9675,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>140.74</v>
@@ -9516,7 +9686,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>140.74</v>
@@ -9527,7 +9697,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>140.74</v>
@@ -9538,7 +9708,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>140.74</v>
@@ -9549,7 +9719,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>140.74</v>
@@ -9560,7 +9730,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>140.74</v>
@@ -9571,7 +9741,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>140.74</v>
@@ -9582,7 +9752,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>143.47</v>
@@ -9593,7 +9763,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>143.62</v>
@@ -9604,7 +9774,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>143.62</v>
@@ -9615,7 +9785,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>143.62</v>
@@ -9626,7 +9796,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>143.62</v>
@@ -9637,7 +9807,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>145.53</v>
@@ -9648,7 +9818,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>145.53</v>
@@ -9659,7 +9829,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>145.53</v>
@@ -9670,7 +9840,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>145.53</v>
@@ -9681,7 +9851,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>145.53</v>
@@ -9692,7 +9862,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>145.53</v>
@@ -9703,7 +9873,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>145.53</v>
@@ -9714,7 +9884,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>143.52000000000001</v>
@@ -9725,7 +9895,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>141.44999999999999</v>
@@ -9736,7 +9906,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>141.62</v>
@@ -9747,7 +9917,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>142.37</v>
@@ -9758,7 +9928,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>142.37</v>
@@ -9769,7 +9939,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>142.37</v>
@@ -9780,7 +9950,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>142.37</v>
@@ -9791,7 +9961,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>142.28</v>
@@ -9802,7 +9972,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>142.28</v>
@@ -9813,7 +9983,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>142.28</v>
@@ -9824,7 +9994,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>143.47</v>
@@ -9835,7 +10005,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>137.91999999999999</v>
@@ -9846,7 +10016,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>137.91999999999999</v>
@@ -9857,7 +10027,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>137.91999999999999</v>
@@ -9868,7 +10038,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>137.91999999999999</v>
@@ -9879,7 +10049,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>137.91999999999999</v>
@@ -9890,7 +10060,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>137.91999999999999</v>
@@ -9901,7 +10071,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>137.91999999999999</v>
@@ -9912,7 +10082,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>137.91999999999999</v>
@@ -9923,7 +10093,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>137.91999999999999</v>
@@ -9934,7 +10104,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>137.91999999999999</v>
@@ -9945,7 +10115,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>135.9</v>
@@ -9956,7 +10126,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>133.31</v>
@@ -9967,7 +10137,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>134.96</v>
@@ -9978,7 +10148,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>133.66999999999999</v>
@@ -9989,7 +10159,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>132.88</v>
@@ -10000,7 +10170,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>132.88</v>
@@ -10011,7 +10181,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>132.88</v>
@@ -10022,7 +10192,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>132.78</v>
@@ -10033,7 +10203,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>141</v>
@@ -10044,7 +10214,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>141</v>
@@ -10055,7 +10225,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>141</v>
@@ -10066,7 +10236,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>141</v>
@@ -10077,7 +10247,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>141</v>
@@ -10088,7 +10258,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>141</v>
@@ -10099,7 +10269,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>147.58000000000001</v>
@@ -10110,7 +10280,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>147.58000000000001</v>
@@ -10121,7 +10291,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>147.58000000000001</v>
@@ -10132,7 +10302,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>147.58000000000001</v>
@@ -10143,7 +10313,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>147.58000000000001</v>
@@ -10154,7 +10324,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>147.58000000000001</v>
@@ -10165,7 +10335,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>147.58000000000001</v>
@@ -10176,7 +10346,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>144.47999999999999</v>
@@ -10187,7 +10357,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>147.5</v>
@@ -10198,7 +10368,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>144.78</v>
@@ -10209,7 +10379,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>149.1</v>
@@ -10220,7 +10390,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>150.05000000000001</v>
@@ -10231,7 +10401,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>150.05000000000001</v>
@@ -10242,7 +10412,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>150.05000000000001</v>
@@ -10253,7 +10423,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>157.18</v>
@@ -10264,7 +10434,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>157.18</v>
@@ -10275,7 +10445,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>157.18</v>
@@ -10286,7 +10456,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B346">
         <v>158.71</v>
